--- a/Processes/Quality Management/COSO/Risk Management/Risk Report.md.xlsx
+++ b/Processes/Quality Management/COSO/Risk Management/Risk Report.md.xlsx
@@ -1,48 +1,277 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B555338-1A2C-47AE-A8BC-0B0F3E5D6282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Overview" sheetId="1" r:id="rId1"/>
+    <sheet name="Register" sheetId="2" r:id="rId2"/>
+    <sheet name="masterfile" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="58">
+  <si>
+    <t xml:space="preserve">No. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risk Event </t>
+  </si>
+  <si>
+    <t xml:space="preserve">L </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cause </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitigation Type </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitigation Strategy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">L* </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C* </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EY </t>
+  </si>
+  <si>
+    <t>Evidences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operational Risk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss of source code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avoiding: Store source code in cloud (github). At least one local developer PC and project server. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes </t>
+  </si>
+  <si>
+    <t>L %</t>
+  </si>
+  <si>
+    <t>C TEUR</t>
+  </si>
+  <si>
+    <t>L* %</t>
+  </si>
+  <si>
+    <t>C* TEUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source code leak </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controlling: The programming language is compiled at runtime. The value of the software lies in the updates, support and licenses. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Many companies transferred the revenue model to subscriptions (e.g. Adobe, Microsoft) in order to avoid similar problems. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User acquires additional permissions without authorization (every software which uses permissions) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avoiding: Permissions can only be granted by users which have received the permissions to do so. Users which can change permissions may also only have the permission to change specific users/permissions (single application elements, not the whole application.). We provide a documentation on who to manage permissions incl. best practices. Customers with a maintenance contract also receive additional advice based on their account permission handling. We also check regularly if features can be used by default without the necessary permissions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The consequences or severities depend on the permissions which can be acquired. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User code execution (every software which allows data upload/input) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avoiding: User provided code is a critical part of some modules (e.g. Helper, Job). These modules provided by OMS execute code user code in iframes. We provide guidelines regarding this sensitive topic which explains that only developers in a company should have access to such functionalities. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data leak (e.g. database data, file uploads) (every software which stores data) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avoiding: We regularly check if users have access to data without the necessary permissions. Our modules may use encryption for extremely sensitive data. Media files are only accessible through the media module which allows to check the necessary reading permissions. We also provide a general policy for customers who to secure and maintain their servers. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a big problem for almost every company working with data. The biggest known leaks happened among others to Adobe, ebay, Equifax, LinkedIn, Yahoo, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corrupt/malicious data injection (every software which accepts data input) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avoiding: Data is validated client side (minimal protection) and server side. Generally, user input is only accepted if it matches the specified allowed format. Data is usually not sanitized to avoid mistakes during the sanitizing process. Database query statements are prepared and encoded. </t>
+  </si>
+  <si>
+    <t>Risks</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>EV TEUR</t>
+  </si>
+  <si>
+    <t>Likelihood</t>
+  </si>
+  <si>
+    <t>Consequence</t>
+  </si>
+  <si>
+    <t>Expected value</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>very low</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>very high</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Gross</t>
+  </si>
+  <si>
+    <t>Net</t>
+  </si>
+  <si>
+    <t>Financial Risk</t>
+  </si>
+  <si>
+    <t>Compliance Risk</t>
+  </si>
+  <si>
+    <t>Strategic Risk</t>
+  </si>
+  <si>
+    <t>Other Risk</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,32 +279,3008 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
+    <cellStyle name="Prozent" xfId="2" builtinId="5"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF4F4F"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Net Risks</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Risks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.6858359957401494E-2"/>
+                  <c:y val="-7.722006156931885E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:strRef>
+                  <c:f>'[1]Meldungen GesellschaftenAuswert'!$K$8</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>BauG-Gasnotstand</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{7C216F94-3736-4038-9E65-4211DFD81483}</c15:txfldGUID>
+                      <c15:f>'[1]Meldungen GesellschaftenAuswert'!$K$8</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>BauG-Gasnotstand</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-460E-4602-AD67-885E374A96DC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.9818956336528223E-2"/>
+                  <c:y val="-5.1480041046212252E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:strRef>
+                  <c:f>'[1]Meldungen GesellschaftenAuswert'!$K$9</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>SWH-Marktrisiko Energiebeschaffung</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{302E87CE-6F14-4DDF-8643-8E40082AC4BB}</c15:txfldGUID>
+                      <c15:f>'[1]Meldungen GesellschaftenAuswert'!$K$9</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>SWH-Marktrisiko Energiebeschaffung</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-460E-4602-AD67-885E374A96DC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.1118210862619806E-2"/>
+                  <c:y val="-3.0888024627727377E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:strRef>
+                  <c:f>'[1]Meldungen GesellschaftenAuswert'!$K$16</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>SWH-kein Zugang zu Finanzmitteln bei Liquiditätsengpässen</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{58707E08-3D5E-4088-8BFC-0B0387716EF9}</c15:txfldGUID>
+                      <c15:f>'[1]Meldungen GesellschaftenAuswert'!$K$16</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>SWH-kein Zugang zu Finanzmitteln bei Liquiditätsengpässen</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-460E-4602-AD67-885E374A96DC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="69"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.2779552715654847E-2"/>
+                  <c:y val="-3.0888024627727446E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:strRef>
+                  <c:f>'[1]Meldungen GesellschaftenAuswert'!$K$72</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>HSB-Steigende Kraftstoffpreise</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{7704EA4B-5882-4A9A-B390-7081A197838C}</c15:txfldGUID>
+                      <c15:f>'[1]Meldungen GesellschaftenAuswert'!$K$72</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>HSB-Steigende Kraftstoffpreise</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-460E-4602-AD67-885E374A96DC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="104"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.839900603478868E-2"/>
+                  <c:y val="-3.8610030784659188E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:strRef>
+                  <c:f>'[1]Meldungen GesellschaftenAuswert'!$K$107</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>Klinikum-fehlendes Fachpersonal</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{B33AC801-6B23-4225-85F6-21E38EDE521E}</c15:txfldGUID>
+                      <c15:f>'[1]Meldungen GesellschaftenAuswert'!$K$107</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>Klinikum-fehlendes Fachpersonal</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-460E-4602-AD67-885E374A96DC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="134"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.4018459353922609E-2"/>
+                  <c:y val="-5.1480041046212281E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:strRef>
+                  <c:f>'[1]Meldungen GesellschaftenAuswert'!$K$137</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>BHG (Einzel)-unzureichende Konzernliquidität</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{4EB9F81F-7895-4B1F-B794-8AA47905C765}</c15:txfldGUID>
+                      <c15:f>'[1]Meldungen GesellschaftenAuswert'!$K$137</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>BHG (Einzel)-unzureichende Konzernliquidität</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-460E-4602-AD67-885E374A96DC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Register!$O$2:$O$13</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Register!$Q$2:$Q$1000</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="999"/>
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-460E-4602-AD67-885E374A96DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="279770624"/>
+        <c:axId val="302891008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="279770624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:tint val="75000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Likelihood (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="302891008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="302891008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Consequence in TEUR</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:prstDash val="sysDash"/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="279770624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="C00000"/>
+            </a:gs>
+            <a:gs pos="60000">
+              <a:srgbClr val="FF4F4F"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="10000">
+              <a:srgbClr val="79CF2A"/>
+            </a:gs>
+            <a:gs pos="25000">
+              <a:srgbClr val="FFF200"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="18000000" scaled="0"/>
+          <a:tileRect/>
+        </a:gradFill>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:strRef>
+          <c:f>Overview!$B$2</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>Risks</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gross</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-511F-46FE-B2F2-6CDC3549506A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-511F-46FE-B2F2-6CDC3549506A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-511F-46FE-B2F2-6CDC3549506A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-511F-46FE-B2F2-6CDC3549506A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-511F-46FE-B2F2-6CDC3549506A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Overview!$B$3:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Operational Risk </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Financial Risk</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Compliance Risk</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Strategic Risk</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Other Risk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Overview!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2D43-4678-8217-6AAB9E368B0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Net</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-511F-46FE-B2F2-6CDC3549506A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-511F-46FE-B2F2-6CDC3549506A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-511F-46FE-B2F2-6CDC3549506A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-511F-46FE-B2F2-6CDC3549506A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-511F-46FE-B2F2-6CDC3549506A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Overview!$B$3:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Operational Risk </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Financial Risk</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Compliance Risk</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Strategic Risk</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Other Risk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Overview!$D$3:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2D43-4678-8217-6AAB9E368B0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="50"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:strRef>
+          <c:f>Overview!$B$2</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>Risks</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gross</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-C716-4A90-9556-1A6560622748}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-C716-4A90-9556-1A6560622748}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-C716-4A90-9556-1A6560622748}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-C716-4A90-9556-1A6560622748}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-C716-4A90-9556-1A6560622748}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Overview!$F$3:$F$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>very low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>low</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>medium</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>high</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>very high</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Overview!$G$3:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-C716-4A90-9556-1A6560622748}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Net</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-C716-4A90-9556-1A6560622748}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-C716-4A90-9556-1A6560622748}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000010-C716-4A90-9556-1A6560622748}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000012-C716-4A90-9556-1A6560622748}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000014-C716-4A90-9556-1A6560622748}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Overview!$F$3:$F$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>very low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>low</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>medium</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>high</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>very high</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Overview!$H$3:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>112.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-C716-4A90-9556-1A6560622748}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="50"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>606425</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C53E674-865C-40C3-814E-33A33131215F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>517524</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>36512</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80F815B9-0F14-33E5-B124-A78DD301558F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDCDA2CB-D7ED-4482-AA74-F7FFF3D6B378}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Auswertung"/>
+      <sheetName val="Auswertung 2"/>
+      <sheetName val="Meldungen GesellschaftenAuswert"/>
+      <sheetName val="BHG"/>
+      <sheetName val="BHG-Daten"/>
+      <sheetName val="SWH"/>
+      <sheetName val="SWH-Daten"/>
+      <sheetName val="HNG"/>
+      <sheetName val="HNG-Daten"/>
+      <sheetName val="HBG"/>
+      <sheetName val="HBG-Daten"/>
+      <sheetName val="HHG"/>
+      <sheetName val="HHG-Daten"/>
+      <sheetName val="HSB"/>
+      <sheetName val="HSB-Daten"/>
+      <sheetName val="HFG"/>
+      <sheetName val="HFG-Daten"/>
+      <sheetName val="BauG"/>
+      <sheetName val="BauG-Daten"/>
+      <sheetName val="HPG"/>
+      <sheetName val="HPG-Daten"/>
+      <sheetName val="HEMG"/>
+      <sheetName val="HEMG-Daten"/>
+      <sheetName val="BauPro"/>
+      <sheetName val="BauPro-Daten"/>
+      <sheetName val="BFG"/>
+      <sheetName val="BFG-Daten"/>
+      <sheetName val="HMG"/>
+      <sheetName val="HMG-Daten"/>
+      <sheetName val="HLNO"/>
+      <sheetName val="HLNO-Daten"/>
+      <sheetName val="KHG"/>
+      <sheetName val="KHG-Daten"/>
+      <sheetName val="NSG"/>
+      <sheetName val="NSG-Daten"/>
+      <sheetName val="MVZ"/>
+      <sheetName val="MVZ-Daten"/>
+      <sheetName val="TGZ"/>
+      <sheetName val="TGZ-Daten"/>
+      <sheetName val="BGBA"/>
+      <sheetName val="BGBA-Daten"/>
+      <sheetName val="HWG"/>
+      <sheetName val="HWG-Daten"/>
+      <sheetName val="PWG"/>
+      <sheetName val="PWG-Daten"/>
+      <sheetName val="HEG"/>
+      <sheetName val="HEG-Daten"/>
+      <sheetName val="Konzernebene"/>
+      <sheetName val="KernDatenGesellschaften"/>
+      <sheetName val="Statistische Daten"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2">
+        <row r="8">
+          <cell r="K8" t="str">
+            <v>BauG-Gasnotstand</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="K9" t="str">
+            <v>SWH-Marktrisiko Energiebeschaffung</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="K16" t="str">
+            <v>SWH-kein Zugang zu Finanzmitteln bei Liquiditätsengpässen</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="K72" t="str">
+            <v>HSB-Steigende Kraftstoffpreise</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="K107" t="str">
+            <v>Klinikum-fehlendes Fachpersonal</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="K137" t="str">
+            <v>BHG (Einzel)-unzureichende Konzernliquidität</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35" refreshError="1"/>
+      <sheetData sheetId="36" refreshError="1"/>
+      <sheetData sheetId="37" refreshError="1"/>
+      <sheetData sheetId="38" refreshError="1"/>
+      <sheetData sheetId="39" refreshError="1"/>
+      <sheetData sheetId="40" refreshError="1"/>
+      <sheetData sheetId="41" refreshError="1"/>
+      <sheetData sheetId="42" refreshError="1"/>
+      <sheetData sheetId="43" refreshError="1"/>
+      <sheetData sheetId="44" refreshError="1"/>
+      <sheetData sheetId="45" refreshError="1"/>
+      <sheetData sheetId="46" refreshError="1"/>
+      <sheetData sheetId="47" refreshError="1"/>
+      <sheetData sheetId="48" refreshError="1"/>
+      <sheetData sheetId="49" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -117,7 +3322,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -150,9 +3355,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -185,6 +3407,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -360,29 +3599,779 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="15.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8">
+      <c r="B2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2">
+        <f>+IFERROR(VLOOKUP(B3,Register!C:I,7,FALSE),0)</f>
+        <v>250</v>
+      </c>
+      <c r="D3" s="2">
+        <f>+IFERROR(VLOOKUP(B3,Register!C:S,17,FALSE),0)</f>
+        <v>100</v>
+      </c>
+      <c r="F3" t="str">
+        <f>+masterfile!L3</f>
+        <v>very low</v>
+      </c>
+      <c r="G3" s="2">
+        <f>+SUMIF(Register!J:J,1,Register!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <f>+SUMIF(Register!T:T,1,Register!S:S)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="2">
+        <f>+IFERROR(VLOOKUP(B4,Register!C:I,7,FALSE),0)</f>
+        <v>50</v>
+      </c>
+      <c r="D4" s="2">
+        <f>+IFERROR(VLOOKUP(B4,Register!C:S,17,FALSE),0)</f>
+        <v>12.5</v>
+      </c>
+      <c r="F4" t="str">
+        <f>+masterfile!L4</f>
+        <v>low</v>
+      </c>
+      <c r="G4" s="2">
+        <f>+SUMIF(Register!J:J,2,Register!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <f>+SUMIF(Register!T:T,2,Register!S:S)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="2">
+        <f>+IFERROR(VLOOKUP(B5,Register!C:I,7,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <f>+IFERROR(VLOOKUP(B5,Register!C:S,17,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" t="str">
+        <f>+masterfile!L5</f>
+        <v>medium</v>
+      </c>
+      <c r="G5" s="2">
+        <f>+SUMIF(Register!J:J,3,Register!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <f>+SUMIF(Register!T:T,3,Register!S:S)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="2">
+        <f>+IFERROR(VLOOKUP(B6,Register!C:I,7,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <f>+IFERROR(VLOOKUP(B6,Register!C:S,17,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" t="str">
+        <f>+masterfile!L6</f>
+        <v>high</v>
+      </c>
+      <c r="G6" s="2">
+        <f>+SUMIF(Register!J:J,4,Register!I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <f>+SUMIF(Register!T:T,4,Register!S:S)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="2">
+        <f>+IFERROR(VLOOKUP(B7,Register!C:I,7,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <f>+IFERROR(VLOOKUP(B7,Register!C:S,17,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" t="str">
+        <f>+masterfile!L7</f>
+        <v>very high</v>
+      </c>
+      <c r="G7" s="2">
+        <f>+SUMIF(Register!J:J,5,Register!I:I)</f>
+        <v>300</v>
+      </c>
+      <c r="H7" s="2">
+        <f>+SUMIF(Register!T:T,5,Register!S:S)</f>
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="10">
+        <f>+SUM(C3:C8)</f>
+        <v>300</v>
+      </c>
+      <c r="D9" s="10">
+        <f>+SUM(D3:D8)</f>
+        <v>112.5</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="10">
+        <f>+SUM(G3:G8)</f>
+        <v>300</v>
+      </c>
+      <c r="H9" s="10">
+        <f>+SUM(H3:H8)</f>
+        <v>112.5</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="4.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.36328125" customWidth="1"/>
+    <col min="5" max="5" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="4" customWidth="1"/>
+    <col min="11" max="11" width="2.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="84.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.08984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.36328125" customWidth="1"/>
+    <col min="19" max="19" width="8.26953125" customWidth="1"/>
+    <col min="20" max="20" width="3.81640625" customWidth="1"/>
+    <col min="21" max="21" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="45.81640625" customWidth="1"/>
+    <col min="23" max="24" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2">
+        <f>ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F2">
+        <f>+IF(E2&lt;masterfile!$B$3,1,IF(E2&lt;masterfile!$B$4,2,IF(E2&lt;masterfile!$B$5,3,IF(E2&lt;masterfile!$B$6,4,5))))</f>
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2500</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <f>+G2*E2</f>
+        <v>250</v>
+      </c>
+      <c r="J2">
+        <f>+IF(I2&lt;masterfile!$K$3,1,IF(I2&lt;masterfile!$K$4,2,IF(I2&lt;masterfile!$K$5,3,IF(I2&lt;masterfile!$K$6,4,5))))</f>
+        <v>5</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="P2">
+        <f>+IF(O2&lt;masterfile!$B$3,1,IF(O2&lt;masterfile!$B$4,2,IF(O2&lt;masterfile!$B$5,3,IF(O2&lt;masterfile!$B$6,4,5))))</f>
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>2000</v>
+      </c>
+      <c r="R2">
+        <v>4</v>
+      </c>
+      <c r="S2">
+        <f>+Q2*O2</f>
+        <v>100</v>
+      </c>
+      <c r="T2">
+        <f>+IF(S2&lt;masterfile!$K$3,1,IF(S2&lt;masterfile!$K$4,2,IF(S2&lt;masterfile!$K$5,3,IF(S2&lt;masterfile!$K$6,4,5))))</f>
+        <v>5</v>
+      </c>
+      <c r="V2" s="1"/>
+      <c r="W2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3">
+        <f t="shared" ref="A3:A8" si="0">ROW()-1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3">
+        <f>+IF(E3&lt;masterfile!$B$3,1,IF(E3&lt;masterfile!$B$4,2,IF(E3&lt;masterfile!$B$5,3,IF(E3&lt;masterfile!$B$6,4,5))))</f>
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I8" si="1">+G3*E3</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>+IF(I3&lt;masterfile!$K$3,1,IF(I3&lt;masterfile!$K$4,2,IF(I3&lt;masterfile!$K$5,3,IF(I3&lt;masterfile!$K$6,4,5))))</f>
+        <v>1</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="P3">
+        <f>+IF(O3&lt;masterfile!$B$3,1,IF(O3&lt;masterfile!$B$4,2,IF(O3&lt;masterfile!$B$5,3,IF(O3&lt;masterfile!$B$6,4,5))))</f>
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S8" si="2">+Q3*O3</f>
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f>+IF(S3&lt;masterfile!$K$3,1,IF(S3&lt;masterfile!$K$4,2,IF(S3&lt;masterfile!$K$5,3,IF(S3&lt;masterfile!$K$6,4,5))))</f>
+        <v>1</v>
+      </c>
+      <c r="V3" s="1"/>
+      <c r="W3" t="s">
+        <v>21</v>
+      </c>
+      <c r="X3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="43.5">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4">
+        <f>+IF(E4&lt;masterfile!$B$3,1,IF(E4&lt;masterfile!$B$4,2,IF(E4&lt;masterfile!$B$5,3,IF(E4&lt;masterfile!$B$6,4,5))))</f>
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f>+IF(I4&lt;masterfile!$K$3,1,IF(I4&lt;masterfile!$K$4,2,IF(I4&lt;masterfile!$K$5,3,IF(I4&lt;masterfile!$K$6,4,5))))</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="P4">
+        <f>+IF(O4&lt;masterfile!$B$3,1,IF(O4&lt;masterfile!$B$4,2,IF(O4&lt;masterfile!$B$5,3,IF(O4&lt;masterfile!$B$6,4,5))))</f>
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <f>+IF(S4&lt;masterfile!$K$3,1,IF(S4&lt;masterfile!$K$4,2,IF(S4&lt;masterfile!$K$5,3,IF(S4&lt;masterfile!$K$6,4,5))))</f>
+        <v>1</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W4" t="s">
+        <v>21</v>
+      </c>
+      <c r="X4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="87">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5">
+        <f>+IF(E5&lt;masterfile!$B$3,1,IF(E5&lt;masterfile!$B$4,2,IF(E5&lt;masterfile!$B$5,3,IF(E5&lt;masterfile!$B$6,4,5))))</f>
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f>+IF(I5&lt;masterfile!$K$3,1,IF(I5&lt;masterfile!$K$4,2,IF(I5&lt;masterfile!$K$5,3,IF(I5&lt;masterfile!$K$6,4,5))))</f>
+        <v>1</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="P5">
+        <f>+IF(O5&lt;masterfile!$B$3,1,IF(O5&lt;masterfile!$B$4,2,IF(O5&lt;masterfile!$B$5,3,IF(O5&lt;masterfile!$B$6,4,5))))</f>
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f>+IF(S5&lt;masterfile!$K$3,1,IF(S5&lt;masterfile!$K$4,2,IF(S5&lt;masterfile!$K$5,3,IF(S5&lt;masterfile!$K$6,4,5))))</f>
+        <v>1</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W5" t="s">
+        <v>21</v>
+      </c>
+      <c r="X5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="43.5">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6">
+        <f>+IF(E6&lt;masterfile!$B$3,1,IF(E6&lt;masterfile!$B$4,2,IF(E6&lt;masterfile!$B$5,3,IF(E6&lt;masterfile!$B$6,4,5))))</f>
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f>+IF(I6&lt;masterfile!$K$3,1,IF(I6&lt;masterfile!$K$4,2,IF(I6&lt;masterfile!$K$5,3,IF(I6&lt;masterfile!$K$6,4,5))))</f>
+        <v>1</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="P6">
+        <f>+IF(O6&lt;masterfile!$B$3,1,IF(O6&lt;masterfile!$B$4,2,IF(O6&lt;masterfile!$B$5,3,IF(O6&lt;masterfile!$B$6,4,5))))</f>
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f>+IF(S6&lt;masterfile!$K$3,1,IF(S6&lt;masterfile!$K$4,2,IF(S6&lt;masterfile!$K$5,3,IF(S6&lt;masterfile!$K$6,4,5))))</f>
+        <v>1</v>
+      </c>
+      <c r="V6" s="1"/>
+      <c r="W6" t="s">
+        <v>21</v>
+      </c>
+      <c r="X6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="58">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7">
+        <f>+IF(E7&lt;masterfile!$B$3,1,IF(E7&lt;masterfile!$B$4,2,IF(E7&lt;masterfile!$B$5,3,IF(E7&lt;masterfile!$B$6,4,5))))</f>
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f>+IF(I7&lt;masterfile!$K$3,1,IF(I7&lt;masterfile!$K$4,2,IF(I7&lt;masterfile!$K$5,3,IF(I7&lt;masterfile!$K$6,4,5))))</f>
+        <v>1</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="P7">
+        <f>+IF(O7&lt;masterfile!$B$3,1,IF(O7&lt;masterfile!$B$4,2,IF(O7&lt;masterfile!$B$5,3,IF(O7&lt;masterfile!$B$6,4,5))))</f>
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f>+IF(S7&lt;masterfile!$K$3,1,IF(S7&lt;masterfile!$K$4,2,IF(S7&lt;masterfile!$K$5,3,IF(S7&lt;masterfile!$K$6,4,5))))</f>
+        <v>1</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W7" t="s">
+        <v>21</v>
+      </c>
+      <c r="X7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="43.5">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8">
+        <f>+IF(E8&lt;masterfile!$B$3,1,IF(E8&lt;masterfile!$B$4,2,IF(E8&lt;masterfile!$B$5,3,IF(E8&lt;masterfile!$B$6,4,5))))</f>
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f>+IF(I8&lt;masterfile!$K$3,1,IF(I8&lt;masterfile!$K$4,2,IF(I8&lt;masterfile!$K$5,3,IF(I8&lt;masterfile!$K$6,4,5))))</f>
+        <v>1</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="P8">
+        <f>+IF(O8&lt;masterfile!$B$3,1,IF(O8&lt;masterfile!$B$4,2,IF(O8&lt;masterfile!$B$5,3,IF(O8&lt;masterfile!$B$6,4,5))))</f>
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f>+IF(S8&lt;masterfile!$K$3,1,IF(S8&lt;masterfile!$K$4,2,IF(S8&lt;masterfile!$K$5,3,IF(S8&lt;masterfile!$K$6,4,5))))</f>
+        <v>1</v>
+      </c>
+      <c r="V8" s="1"/>
+      <c r="W8" t="s">
+        <v>21</v>
+      </c>
+      <c r="X8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F9">
+        <f>+IF(E9&lt;masterfile!$B$3,1,IF(E9&lt;masterfile!$B$4,2,IF(E9&lt;masterfile!$B$5,3,IF(E9&lt;masterfile!$B$6,4,5))))</f>
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>500</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <f>+G9*E9</f>
+        <v>50</v>
+      </c>
+      <c r="J9">
+        <f>+IF(I9&lt;masterfile!$K$3,1,IF(I9&lt;masterfile!$K$4,2,IF(I9&lt;masterfile!$K$5,3,IF(I9&lt;masterfile!$K$6,4,5))))</f>
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="P9">
+        <f>+IF(O9&lt;masterfile!$B$3,1,IF(O9&lt;masterfile!$B$4,2,IF(O9&lt;masterfile!$B$5,3,IF(O9&lt;masterfile!$B$6,4,5))))</f>
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>250</v>
+      </c>
+      <c r="R9">
+        <v>4</v>
+      </c>
+      <c r="S9">
+        <f>+Q9*O9</f>
+        <v>12.5</v>
+      </c>
+      <c r="T9">
+        <f>+IF(S9&lt;masterfile!$K$3,1,IF(S9&lt;masterfile!$K$4,2,IF(S9&lt;masterfile!$K$5,3,IF(S9&lt;masterfile!$K$6,4,5))))</f>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -390,15 +4379,182 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7DF696E-5339-4333-8106-3E278B07355B}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="B2:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="6" max="6" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12">
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3">
+        <v>50</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4">
+        <v>150</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5">
+        <v>250</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6">
+        <v>450</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7">
+        <v>750</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>